--- a/Excell - roomky/Sešit1 (version 1).xlsx
+++ b/Excell - roomky/Sešit1 (version 1).xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\trodl\Desktop\Github\Projects\W-danca\Excell - roomky\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC8043F0-3BB1-4851-86EC-1DE1EB6157B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93A930AD-031A-42E0-B575-DF83DC057795}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5300" yWindow="0" windowWidth="13967" windowHeight="11360" xr2:uid="{FCCA601C-5ACF-4841-AED6-C6C125A15F00}"/>
+    <workbookView xWindow="10120" yWindow="0" windowWidth="9160" windowHeight="11360" xr2:uid="{FCCA601C-5ACF-4841-AED6-C6C125A15F00}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -164,7 +163,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -319,11 +318,38 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -412,6 +438,36 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -747,10 +803,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8194A38D-61C1-4175-90C9-17674B77EAD7}">
-  <dimension ref="A1:K45"/>
+  <dimension ref="A1:L45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C39" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
-      <selection activeCell="J43" sqref="J43"/>
+    <sheetView tabSelected="1" topLeftCell="D38" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -1323,7 +1379,36 @@
       <c r="J30" s="30"/>
       <c r="K30" s="31"/>
     </row>
-    <row r="39" spans="4:10" x14ac:dyDescent="0.5">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.5">
+      <c r="E37" s="42">
+        <v>7000</v>
+      </c>
+      <c r="F37" s="42"/>
+    </row>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.5">
+      <c r="D38" s="44">
+        <v>0</v>
+      </c>
+      <c r="E38" s="45">
+        <v>1</v>
+      </c>
+      <c r="F38" s="45">
+        <v>2</v>
+      </c>
+      <c r="G38" s="46">
+        <v>3</v>
+      </c>
+      <c r="H38" s="46">
+        <v>4</v>
+      </c>
+      <c r="I38" s="46">
+        <v>5</v>
+      </c>
+      <c r="J38" s="46">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.5">
       <c r="D39" s="10">
         <v>46</v>
       </c>
@@ -1345,8 +1430,12 @@
       <c r="J39" s="39">
         <v>47</v>
       </c>
-    </row>
-    <row r="40" spans="4:10" x14ac:dyDescent="0.5">
+      <c r="K39" s="47">
+        <v>0</v>
+      </c>
+      <c r="L39" s="48"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.5">
       <c r="D40" s="10">
         <v>31</v>
       </c>
@@ -1368,8 +1457,16 @@
       <c r="J40" s="39">
         <v>36</v>
       </c>
-    </row>
-    <row r="41" spans="4:10" x14ac:dyDescent="0.5">
+      <c r="K40" s="47">
+        <v>600</v>
+      </c>
+      <c r="L40" s="48"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.5">
+      <c r="B41" s="41">
+        <v>4200</v>
+      </c>
+      <c r="C41" s="43"/>
       <c r="D41" s="10">
         <v>30</v>
       </c>
@@ -1391,8 +1488,12 @@
       <c r="J41" s="39">
         <v>37</v>
       </c>
-    </row>
-    <row r="42" spans="4:10" x14ac:dyDescent="0.5">
+      <c r="K41" s="47">
+        <v>1200</v>
+      </c>
+      <c r="L41" s="48"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.5">
       <c r="D42" s="10">
         <v>29</v>
       </c>
@@ -1414,8 +1515,12 @@
       <c r="J42" s="39">
         <v>27</v>
       </c>
-    </row>
-    <row r="43" spans="4:10" x14ac:dyDescent="0.5">
+      <c r="K42" s="49">
+        <v>1800</v>
+      </c>
+      <c r="L42" s="50"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.5">
       <c r="D43" s="10">
         <v>45</v>
       </c>
@@ -1437,8 +1542,12 @@
       <c r="J43" s="39">
         <v>38</v>
       </c>
-    </row>
-    <row r="44" spans="4:10" x14ac:dyDescent="0.5">
+      <c r="K43" s="47">
+        <v>2400</v>
+      </c>
+      <c r="L43" s="48"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.5">
       <c r="D44" s="10">
         <v>44</v>
       </c>
@@ -1460,8 +1569,12 @@
       <c r="J44" s="39">
         <v>39</v>
       </c>
-    </row>
-    <row r="45" spans="4:10" x14ac:dyDescent="0.5">
+      <c r="K44" s="47">
+        <v>3000</v>
+      </c>
+      <c r="L44" s="48"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.5">
       <c r="D45" s="40">
         <v>49</v>
       </c>
@@ -1483,8 +1596,23 @@
       <c r="J45" s="10">
         <v>48</v>
       </c>
+      <c r="K45" s="47">
+        <v>3600</v>
+      </c>
+      <c r="L45" s="48"/>
     </row>
   </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="K44:L44"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
